--- a/문서/견적서/서버용 데스크탑 견적서.xlsx
+++ b/문서/견적서/서버용 데스크탑 견적서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,67 +82,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CPU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD 라이젠 7 1700(서밋 릿지)(정품)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자 DDR4 8G PC4-19200(정품)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock AB350M PRO4 에즈윈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크론 Crucial MX300 대원 CTS(275GB)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 2TB Barracuda ST2000DM006(SATA3/7200/64M)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COX A5 벨로체 USB 3.0 풀 아크릴 윈도우 블랙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로닉스 Classic || 600W + 12V Single Rall 85+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI 지포스 GTX1060 게이밍 X 플러스 D5 6GB 트윈프로져 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인견적최저가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G마켓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터파크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 비교 사이트-다나와</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>삼성전자 S27F350</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD 라이젠 7 1700(서밋 릿지)(정품)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자 DDR4 8G PC4-19200(정품)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASRock AB350M PRO4 에즈윈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크론 Crucial MX300 대원 CTS(275GB)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seagate 2TB Barracuda ST2000DM006(SATA3/7200/64M)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>COX A5 벨로체 USB 3.0 풀 아크릴 윈도우 블랙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로닉스 Classic || 600W + 12V Single Rall 85+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인보드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +222,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +255,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,8 +297,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,12 +317,16 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -571,16 +640,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6505CAD-456D-4DE3-8811-4EA228613803}">
-  <dimension ref="B5:N14"/>
+  <dimension ref="B3:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -593,6 +662,14 @@
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -639,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -677,10 +754,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -718,13 +795,13 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>186560</v>
@@ -759,10 +836,10 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -800,10 +877,10 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -841,10 +918,10 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -882,10 +959,10 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -923,10 +1000,10 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -963,16 +1040,95 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1">
-        <f>SUM(D6:D13)</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E6:E13)</f>
-        <v>1161060</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>416500</v>
+      </c>
+      <c r="F18" s="4">
+        <v>416500</v>
+      </c>
+      <c r="G18" s="4">
+        <v>416500</v>
+      </c>
+      <c r="H18" s="2">
+        <v>417000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>421000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>421000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>436730</v>
+      </c>
+      <c r="L18" s="2">
+        <v>448040</v>
+      </c>
+      <c r="M18" s="2">
+        <v>452910</v>
+      </c>
+      <c r="N18" s="2">
+        <v>509000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(D6:D14)</f>
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <f>SUM(E6:E14)+E18</f>
+        <v>1577560</v>
       </c>
     </row>
   </sheetData>
